--- a/PISA_Data.xlsx
+++ b/PISA_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="480" windowWidth="17660" windowHeight="12860" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5100" yWindow="480" windowWidth="17660" windowHeight="6380" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Marge Data" sheetId="5" r:id="rId1"/>
@@ -7302,11 +7302,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" style="53" customWidth="1"/>
-    <col min="2" max="5" width="9.1640625" style="53"/>
-    <col min="6" max="7" width="9.1640625" style="18"/>
+    <col min="2" max="5" width="10.83203125" style="53"/>
+    <col min="6" max="7" width="10.83203125" style="18"/>
     <col min="8" max="9" width="16.1640625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="18"/>
-    <col min="11" max="16384" width="10.83203125" style="18"/>
+    <col min="10" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
@@ -10418,8 +10417,8 @@
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="143" zoomScaleNormal="150" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" zoomScale="143" zoomScaleNormal="150" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13159,8 +13158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/PISA_Data.xlsx
+++ b/PISA_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="480" windowWidth="17660" windowHeight="6380" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="40" yWindow="480" windowWidth="22720" windowHeight="13060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Marge Data" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Marge Data'!$A$4:$E$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Regression!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'score and int'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'score and int'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'score and int (2)'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -37,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="122">
-  <si>
-    <t>2. Footnote by all the European Union Member States of the OECD and the European Union: The Republic of Cyprus is recognised by all members of the United Nations with the exception of Turkey. The information in this document relates to the area under the effective control of the Government of the Republic of Cyprus.</t>
-  </si>
-  <si>
-    <t>1. Footnote by Turkey: The information in this document with reference to « Cyprus » relates to the southern part of the Island. There is no single authority representing both Turkish and Greek Cypriot people on the Island. Turkey recognises the Turkish Republic of Northern Cyprus (TRNC). Until a lasting and equitable solution is found within the context of the United Nations, Turkey shall preserve its position concerning the “Cyprus issue”.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="112">
   <si>
     <t>Uruguay</t>
   </si>
@@ -174,30 +168,6 @@
   </si>
   <si>
     <t>Australia</t>
-  </si>
-  <si>
-    <t>Mean score and variation in student performance in problem solving</t>
-  </si>
-  <si>
-    <t>Table V.2.2</t>
-  </si>
-  <si>
-    <t>Note: The statistical data for Israel are supplied by and under the responsibility of the relevant Israeli authorities. The use of such data by the OECD is without prejudice to the status of the Golan Heights, East Jerusalem and Israeli settlements in the West Bank under the terms of international law.</t>
-  </si>
-  <si>
-    <t>This document and any map included herein are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Version 1 - Last updated: 24-Mar-2014</t>
-  </si>
-  <si>
-    <t>Chapter 2 (tables):  Student Performance in Problem Solving</t>
-  </si>
-  <si>
-    <t>Annex B1, Chapter 2</t>
-  </si>
-  <si>
-    <t>PISA 2012 Results: Skills for Life (Volume V): Student Performance in Problem Solving - © OECD 2014</t>
   </si>
   <si>
     <t>Mean score (2012)</t>
@@ -4185,7 +4155,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4330,6 +4300,9 @@
     <xf numFmtId="2" fontId="5" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2687">
     <cellStyle name="20% - Accent1 2" xfId="3"/>
@@ -7295,8 +7268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:S67"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="126" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView zoomScale="126" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7305,71 +7278,71 @@
     <col min="2" max="5" width="10.83203125" style="53"/>
     <col min="6" max="7" width="10.83203125" style="18"/>
     <col min="8" max="9" width="16.1640625" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="18"/>
+    <col min="10" max="16384" width="9.1640625" style="18"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="51" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="M4" s="52" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="O4" s="52" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="P4" s="52" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="52" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="R4" s="52" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="S4" s="52" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B5" s="45">
         <v>397.37321355917845</v>
@@ -7416,7 +7389,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B6" s="45">
         <v>405.63200498559411</v>
@@ -7463,7 +7436,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="45">
         <v>521.49474631531871</v>
@@ -7513,7 +7486,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="45">
         <v>505.78124706763589</v>
@@ -7566,7 +7539,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="44">
         <v>504.86765304656188</v>
@@ -7610,7 +7583,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="44">
         <v>404.71052925846755</v>
@@ -7663,7 +7636,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="45">
         <v>446.4687093761944</v>
@@ -7713,7 +7686,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="45">
         <v>525.44129214262466</v>
@@ -7754,7 +7727,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="44">
         <v>444.93391969495934</v>
@@ -7807,7 +7780,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="45">
         <v>398.67863161580402</v>
@@ -7863,7 +7836,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B15" s="44">
         <v>429.3509675422444</v>
@@ -7910,7 +7883,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="44">
         <v>491.35658283423641</v>
@@ -7954,7 +7927,7 @@
     </row>
     <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B17" s="44">
         <v>437.67627418839373</v>
@@ -7998,7 +7971,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="44">
         <v>508.29907935425865</v>
@@ -8048,7 +8021,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="45">
         <v>498.47420142947112</v>
@@ -8089,7 +8062,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="45">
         <v>541.40475616409549</v>
@@ -8139,7 +8112,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="45">
         <v>545.4419399878692</v>
@@ -8192,7 +8165,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="44">
         <v>498.97089415147144</v>
@@ -8242,7 +8215,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="45">
         <v>524.12079925700255</v>
@@ -8292,7 +8265,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="37" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B24" s="44">
         <v>466.7220294888204</v>
@@ -8333,7 +8306,7 @@
     </row>
     <row r="25" spans="1:19" ht="27" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="45">
         <v>554.93743439573836</v>
@@ -8389,7 +8362,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="45">
         <v>494.3023512216796</v>
@@ -8433,7 +8406,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B27" s="45">
         <v>478.15459619459494</v>
@@ -8474,7 +8447,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="37" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B28" s="45">
         <v>381.91148486595824</v>
@@ -8524,7 +8497,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="44">
         <v>522.00395919667244</v>
@@ -8574,7 +8547,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="45">
         <v>470.07266182272519</v>
@@ -8618,7 +8591,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31" s="44">
         <v>493.54148180496981</v>
@@ -8659,7 +8632,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32" s="45">
         <v>546.73559977511457</v>
@@ -8712,7 +8685,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B33" s="44">
         <v>409.36721468725392</v>
@@ -8753,7 +8726,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B34" s="45">
         <v>424.70752297396126</v>
@@ -8794,7 +8767,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="44">
         <v>537.78762153517823</v>
@@ -8844,7 +8817,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="37" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B36" s="44">
         <v>502.18619208774044</v>
@@ -8894,7 +8867,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="37" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B37" s="45">
         <v>524.69499227575216</v>
@@ -8932,7 +8905,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="37" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B38" s="44">
         <v>495.70008639690144</v>
@@ -8979,7 +8952,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="37" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B39" s="45">
         <v>491.21517567046692</v>
@@ -9020,7 +8993,7 @@
     </row>
     <row r="40" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="50" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B40" s="44">
         <v>520.57087533384777</v>
@@ -9075,7 +9048,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B41" s="44">
         <v>419.50264853365013</v>
@@ -9122,7 +9095,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="37" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B42" s="45">
         <v>414.92014771534446</v>
@@ -9166,7 +9139,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B43" s="44">
         <v>410.09760226255111</v>
@@ -9207,7 +9180,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B44" s="45">
         <v>522.05582172580455</v>
@@ -9260,7 +9233,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B45" s="44">
         <v>515.6363187005793</v>
@@ -9307,7 +9280,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B46" s="45">
         <v>494.52393474130616</v>
@@ -9354,7 +9327,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="37" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B47" s="45">
         <v>373.11344837439049</v>
@@ -9407,7 +9380,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B48" s="44">
         <v>525.81644543817538</v>
@@ -9457,7 +9430,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B49" s="44">
         <v>489.2747319815229</v>
@@ -9501,7 +9474,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="37" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B50" s="44">
         <v>383.64255338748342</v>
@@ -9551,7 +9524,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="37" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B51" s="44">
         <v>438.76805621174987</v>
@@ -9598,7 +9571,7 @@
     </row>
     <row r="52" spans="1:19" ht="27" x14ac:dyDescent="0.2">
       <c r="A52" s="37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B52" s="44">
         <v>486.29548996519583</v>
@@ -9648,7 +9621,7 @@
     </row>
     <row r="53" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B53" s="44">
         <v>444.80411087113379</v>
@@ -9703,7 +9676,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B54" s="45">
         <v>551.49315664283222</v>
@@ -9753,7 +9726,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B55" s="44">
         <v>471.19317726606238</v>
@@ -9806,7 +9779,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" s="44">
         <v>514.14255496615533</v>
@@ -9856,7 +9829,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B57" s="44">
         <v>496.44582282445447</v>
@@ -9912,7 +9885,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B58" s="44">
         <v>484.79896580901163</v>
@@ -9965,7 +9938,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="37" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B59" s="44">
         <v>515.29752346377029</v>
@@ -10012,7 +9985,7 @@
     </row>
     <row r="60" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="50" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B60" s="44">
         <v>443.9999350894455</v>
@@ -10065,7 +10038,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="43" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B61" s="45">
         <v>398.04645091853666</v>
@@ -10118,7 +10091,7 @@
     </row>
     <row r="62" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B62" s="44">
         <v>463.41290907273287</v>
@@ -10169,7 +10142,7 @@
     </row>
     <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.2">
       <c r="A63" s="37" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B63" s="44">
         <v>448.3702958632</v>
@@ -10216,7 +10189,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="37" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B64" s="44">
         <v>514.12932105488142</v>
@@ -10263,7 +10236,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B65" s="44">
         <v>497.40981148308617</v>
@@ -10307,7 +10280,7 @@
     </row>
     <row r="66" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B66" s="45">
         <v>415.84293548984419</v>
@@ -10351,7 +10324,7 @@
     </row>
     <row r="67" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B67" s="66">
         <v>528.42325898667661</v>
@@ -10415,1077 +10388,1107 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="143" zoomScaleNormal="150" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="143" zoomScaleNormal="150" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="7"/>
+    <col min="2" max="2" width="16.1640625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>121</v>
+        <v>45</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="71" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="68">
+        <v>39</v>
+      </c>
+      <c r="B2" s="82">
+        <v>4247.8398520190676</v>
+      </c>
+      <c r="C2" s="68">
         <v>530</v>
       </c>
-      <c r="C2" s="67">
+      <c r="D2" s="67">
         <v>523.08174521960564</v>
       </c>
-      <c r="D2" s="69">
+      <c r="E2" s="69">
         <v>29.4779534120864</v>
       </c>
-      <c r="E2" s="70">
+      <c r="F2" s="70">
         <v>79</v>
       </c>
-      <c r="F2" s="67">
-        <f>C2-B2</f>
+      <c r="G2" s="67">
+        <f>D2-C2</f>
         <v>-6.9182547803943635</v>
       </c>
-      <c r="G2" s="67">
-        <f>E2-D2</f>
+      <c r="H2" s="67">
+        <f>F2-E2</f>
         <v>49.5220465879136</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="5">
+        <v>38</v>
+      </c>
+      <c r="B3" s="82">
+        <v>67646.103852962551</v>
+      </c>
+      <c r="C3" s="5">
         <v>506</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="6">
         <v>506.36672702076271</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="30">
+      <c r="E3" s="21"/>
+      <c r="F3" s="30">
         <v>80.029993916990307</v>
       </c>
-      <c r="F3" s="8">
-        <f>C3-B3</f>
+      <c r="G3" s="8">
+        <f>D3-C3</f>
         <v>0.3667270207627098</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="5">
+        <v>37</v>
+      </c>
+      <c r="B4" s="82">
+        <v>44734.452346580299</v>
+      </c>
+      <c r="C4" s="5">
         <v>525</v>
       </c>
-      <c r="C4" s="6">
+      <c r="D4" s="6">
         <v>507.75617220335039</v>
       </c>
-      <c r="D4" s="21">
+      <c r="E4" s="21">
         <v>42.7</v>
       </c>
-      <c r="E4" s="30">
+      <c r="F4" s="30">
         <v>80.719990548204194</v>
       </c>
-      <c r="F4" s="67">
-        <f>C4-B4</f>
+      <c r="G4" s="67">
+        <f>D4-C4</f>
         <v>-17.243827796649612</v>
       </c>
-      <c r="G4" s="8">
-        <f t="shared" ref="G4:G26" si="0">E4-D4</f>
+      <c r="H4" s="8">
+        <f t="shared" ref="H4:H26" si="0">F4-E4</f>
         <v>38.019990548204191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="77" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="74">
+        <v>12</v>
+      </c>
+      <c r="B5" s="82">
+        <v>12157.308217647336</v>
+      </c>
+      <c r="C5" s="74">
         <v>371</v>
       </c>
-      <c r="C5" s="73">
+      <c r="D5" s="73">
         <v>428.46640011817544</v>
       </c>
-      <c r="D5" s="75">
+      <c r="E5" s="75">
         <v>49.97</v>
       </c>
-      <c r="E5" s="76">
+      <c r="F5" s="76">
         <v>48.56</v>
       </c>
-      <c r="F5" s="73">
-        <f>C5-B5</f>
+      <c r="G5" s="73">
+        <f>D5-C5</f>
         <v>57.466400118175443</v>
       </c>
-      <c r="G5" s="73">
+      <c r="H5" s="73">
         <f t="shared" si="0"/>
         <v>-1.4099999999999966</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6">
+        <v>11</v>
+      </c>
+      <c r="B6" s="82">
+        <v>7333.3550730394536</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6">
         <v>401.67329183481229</v>
       </c>
-      <c r="D6" s="21">
+      <c r="E6" s="21">
         <v>12.04</v>
       </c>
-      <c r="E6" s="30">
+      <c r="F6" s="30">
         <v>51.899987665850297</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="8">
         <f t="shared" si="0"/>
         <v>39.859987665850298</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="71" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="68">
+        <v>36</v>
+      </c>
+      <c r="B7" s="82">
+        <v>52495.288471993728</v>
+      </c>
+      <c r="C7" s="68">
         <v>529</v>
       </c>
-      <c r="C7" s="67">
+      <c r="D7" s="67">
         <v>525.71371892946456</v>
       </c>
-      <c r="D7" s="72">
+      <c r="E7" s="72">
         <v>13.2075861035303</v>
       </c>
-      <c r="E7" s="70">
+      <c r="F7" s="70">
         <v>83</v>
       </c>
-      <c r="F7" s="67">
-        <f>C7-B7</f>
+      <c r="G7" s="67">
+        <f>D7-C7</f>
         <v>-3.2862810705354377</v>
       </c>
-      <c r="G7" s="67">
+      <c r="H7" s="67">
         <f t="shared" si="0"/>
         <v>69.792413896469697</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6">
+        <v>35</v>
+      </c>
+      <c r="B8" s="82">
+        <v>15253.330826887794</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6">
         <v>447.86009451057282</v>
       </c>
-      <c r="D8" s="78">
+      <c r="E8" s="78">
         <v>64.2</v>
       </c>
-      <c r="E8" s="79">
+      <c r="F8" s="79">
         <v>55.05</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>-9.1500000000000057</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6">
+        <v>10</v>
+      </c>
+      <c r="B9" s="82">
+        <v>7885.061292302139</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6">
         <v>399.16608752366403</v>
       </c>
-      <c r="D9" s="21">
+      <c r="E9" s="21">
         <v>25.473778886472299</v>
       </c>
-      <c r="E9" s="30">
+      <c r="F9" s="30">
         <v>48.98</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>23.506221113527697</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="82">
+        <v>13235.977570174906</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6">
         <v>466.25484873444759</v>
       </c>
-      <c r="D10" s="21">
+      <c r="E10" s="21">
         <v>7.3889237105255701</v>
       </c>
-      <c r="E10" s="30">
+      <c r="F10" s="30">
         <v>61.939973152795602</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="8">
         <f t="shared" si="0"/>
         <v>54.551049442270035</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="82">
+        <v>28868.273816164499</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6">
         <v>444.85827992953404</v>
       </c>
-      <c r="D11" s="21">
+      <c r="E11" s="21">
         <v>30.09</v>
       </c>
-      <c r="E11" s="30">
+      <c r="F11" s="30">
         <v>60.689868400190299</v>
       </c>
-      <c r="G11" s="8">
+      <c r="H11" s="8">
         <f t="shared" si="0"/>
         <v>30.599868400190299</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="71" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="68">
+        <v>34</v>
+      </c>
+      <c r="B12" s="82">
+        <v>19640.928659703815</v>
+      </c>
+      <c r="C12" s="68">
         <v>516</v>
       </c>
-      <c r="C12" s="67">
+      <c r="D12" s="67">
         <v>508.97814094615705</v>
       </c>
-      <c r="D12" s="72">
+      <c r="E12" s="72">
         <v>34.299999999999997</v>
       </c>
-      <c r="E12" s="70">
+      <c r="F12" s="70">
         <v>73.430007824103598</v>
       </c>
-      <c r="F12" s="67">
-        <f>C12-B12</f>
+      <c r="G12" s="67">
+        <f>D12-C12</f>
         <v>-7.0218590538429453</v>
       </c>
-      <c r="G12" s="67">
+      <c r="H12" s="67">
         <f t="shared" si="0"/>
         <v>39.1300078241036</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="71" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="68">
+        <v>33</v>
+      </c>
+      <c r="B13" s="82">
+        <v>58125.364818691181</v>
+      </c>
+      <c r="C13" s="68">
         <v>517</v>
       </c>
-      <c r="C13" s="67">
+      <c r="D13" s="67">
         <v>497.09709272264445</v>
       </c>
-      <c r="D13" s="72">
+      <c r="E13" s="72">
         <v>55.9</v>
       </c>
-      <c r="E13" s="70">
+      <c r="F13" s="70">
         <v>92.260011715301204</v>
       </c>
-      <c r="F13" s="67">
-        <f>C13-B13</f>
+      <c r="G13" s="67">
+        <f>D13-C13</f>
         <v>-19.902907277355553</v>
       </c>
-      <c r="G13" s="67">
+      <c r="H13" s="67">
         <f t="shared" si="0"/>
         <v>36.360011715301205</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6">
+        <v>32</v>
+      </c>
+      <c r="B14" s="82">
+        <v>17490.993130040864</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6">
         <v>514.97890450273587</v>
       </c>
-      <c r="D14" s="21">
+      <c r="E14" s="21">
         <v>76.260000000000005</v>
       </c>
-      <c r="E14" s="30">
+      <c r="F14" s="30">
         <v>78.389925925925894</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="8">
         <f t="shared" si="0"/>
         <v>2.1299259259258889</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="71" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="68">
+        <v>31</v>
+      </c>
+      <c r="B15" s="82">
+        <v>47415.559871135112</v>
+      </c>
+      <c r="C15" s="68">
         <v>548</v>
       </c>
-      <c r="C15" s="67">
+      <c r="D15" s="67">
         <v>522.83321487532965</v>
       </c>
-      <c r="D15" s="72">
+      <c r="E15" s="72">
         <v>39.93</v>
       </c>
-      <c r="E15" s="70">
+      <c r="F15" s="70">
         <v>89.879997974221993</v>
       </c>
-      <c r="F15" s="67">
-        <f t="shared" ref="F15:F20" si="1">C15-B15</f>
+      <c r="G15" s="67">
+        <f t="shared" ref="G15:G20" si="1">D15-C15</f>
         <v>-25.166785124670355</v>
       </c>
-      <c r="G15" s="67">
+      <c r="H15" s="67">
         <f t="shared" si="0"/>
         <v>49.949997974221994</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" s="71" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="68">
+        <v>30</v>
+      </c>
+      <c r="B16" s="82">
+        <v>40838.024436834021</v>
+      </c>
+      <c r="C16" s="68">
         <v>519</v>
       </c>
-      <c r="C16" s="67">
+      <c r="D16" s="67">
         <v>510.97601349961451</v>
       </c>
-      <c r="D16" s="72">
+      <c r="E16" s="72">
         <v>45.32</v>
       </c>
-      <c r="E16" s="70">
+      <c r="F16" s="70">
         <v>81.44</v>
       </c>
-      <c r="F16" s="67">
+      <c r="G16" s="67">
         <f t="shared" si="1"/>
         <v>-8.0239865003854902</v>
       </c>
-      <c r="G16" s="67">
+      <c r="H16" s="67">
         <f t="shared" si="0"/>
         <v>36.119999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" s="71" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="68">
+        <v>29</v>
+      </c>
+      <c r="B17" s="82">
+        <v>44010.931386981363</v>
+      </c>
+      <c r="C17" s="68">
         <v>513</v>
       </c>
-      <c r="C17" s="67">
+      <c r="D17" s="67">
         <v>508.66028113945396</v>
       </c>
-      <c r="D17" s="72">
+      <c r="E17" s="72">
         <v>69.22</v>
       </c>
-      <c r="E17" s="70">
+      <c r="F17" s="70">
         <v>82.349998473839193</v>
       </c>
-      <c r="F17" s="67">
+      <c r="G17" s="67">
         <f t="shared" si="1"/>
         <v>-4.3397188605460428</v>
       </c>
-      <c r="G17" s="67">
+      <c r="H17" s="67">
         <f t="shared" si="0"/>
         <v>13.129998473839194</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" s="71" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="68">
+        <v>7</v>
+      </c>
+      <c r="B18" s="82">
+        <v>36707.774228255439</v>
+      </c>
+      <c r="C18" s="68">
         <v>548</v>
       </c>
-      <c r="C18" s="67">
+      <c r="D18" s="67">
         <v>539.56074072710123</v>
       </c>
-      <c r="D18" s="72">
+      <c r="E18" s="72">
         <v>36.14</v>
       </c>
-      <c r="E18" s="70">
+      <c r="F18" s="70">
         <v>72.900000000000006</v>
       </c>
-      <c r="F18" s="67">
+      <c r="G18" s="67">
         <f t="shared" si="1"/>
         <v>-8.4392592728987665</v>
       </c>
-      <c r="G18" s="67">
+      <c r="H18" s="67">
         <f t="shared" si="0"/>
         <v>36.760000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="71" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="68">
+        <v>28</v>
+      </c>
+      <c r="B19" s="82">
+        <v>12819.712058803179</v>
+      </c>
+      <c r="C19" s="68">
         <v>501</v>
       </c>
-      <c r="C19" s="67">
+      <c r="D19" s="67">
         <v>459.03165632921332</v>
       </c>
-      <c r="D19" s="72">
+      <c r="E19" s="72">
         <v>64.819999999999993</v>
       </c>
-      <c r="E19" s="70">
+      <c r="F19" s="70">
         <v>70.579998153838005</v>
       </c>
-      <c r="F19" s="67">
+      <c r="G19" s="67">
         <f t="shared" si="1"/>
         <v>-41.96834367078668</v>
       </c>
-      <c r="G19" s="67">
+      <c r="H19" s="67">
         <f t="shared" si="0"/>
         <v>5.7599981538380121</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="5">
+        <v>27</v>
+      </c>
+      <c r="B20" s="82">
+        <v>48976.929753384837</v>
+      </c>
+      <c r="C20" s="5">
         <v>498</v>
       </c>
-      <c r="C20" s="6">
+      <c r="D20" s="6">
         <v>498.33671240038007</v>
       </c>
-      <c r="D20" s="21">
+      <c r="E20" s="21">
         <v>52.200043349740398</v>
       </c>
-      <c r="E20" s="30">
+      <c r="F20" s="30">
         <v>76.919992540096999</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
         <f t="shared" si="1"/>
         <v>0.33671240038006545</v>
       </c>
-      <c r="G20" s="8">
+      <c r="H20" s="8">
         <f t="shared" si="0"/>
         <v>24.719949190356601</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6">
+        <v>26</v>
+      </c>
+      <c r="B21" s="82">
+        <v>32818.858376882839</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6">
         <v>454.01659016569033</v>
       </c>
-      <c r="D21" s="21">
+      <c r="E21" s="21">
         <v>22.75</v>
       </c>
-      <c r="E21" s="30">
+      <c r="F21" s="30">
         <v>70.8</v>
       </c>
-      <c r="G21" s="8">
+      <c r="H21" s="8">
         <f t="shared" si="0"/>
         <v>48.05</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="5">
+        <v>25</v>
+      </c>
+      <c r="B22" s="82">
+        <v>34814.124359393587</v>
+      </c>
+      <c r="C22" s="5">
         <v>469</v>
       </c>
-      <c r="C22" s="6">
+      <c r="D22" s="6">
         <v>509.60777467380962</v>
       </c>
-      <c r="D22" s="21">
+      <c r="E22" s="21">
         <v>21.63</v>
       </c>
-      <c r="E22" s="30">
+      <c r="F22" s="30">
         <v>55.829997993283001</v>
       </c>
-      <c r="F22" s="8">
-        <f>C22-B22</f>
+      <c r="G22" s="8">
+        <f>D22-C22</f>
         <v>40.607774673809615</v>
       </c>
-      <c r="G22" s="8">
+      <c r="H22" s="8">
         <f t="shared" si="0"/>
         <v>34.199997993283006</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="5">
+        <v>24</v>
+      </c>
+      <c r="B23" s="82">
+        <v>46701.008002883638</v>
+      </c>
+      <c r="C23" s="5">
         <v>547</v>
       </c>
-      <c r="C23" s="6">
+      <c r="D23" s="6">
         <v>552.15350230951003</v>
       </c>
-      <c r="D23" s="21">
+      <c r="E23" s="21">
         <v>34.31</v>
       </c>
-      <c r="E23" s="30">
+      <c r="F23" s="30">
         <v>79.496399999999994</v>
       </c>
-      <c r="F23" s="8">
-        <f>C23-B23</f>
+      <c r="G23" s="8">
+        <f>D23-C23</f>
         <v>5.1535023095100314</v>
       </c>
-      <c r="G23" s="8">
+      <c r="H23" s="8">
         <f t="shared" si="0"/>
         <v>45.186399999999992</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="82">
+        <v>24453.971912464443</v>
+      </c>
+      <c r="C24" s="5">
         <v>550</v>
       </c>
-      <c r="C24" s="6">
+      <c r="D24" s="6">
         <v>561.10370172919409</v>
       </c>
-      <c r="D24" s="21">
+      <c r="E24" s="21">
         <v>48.435265889965301</v>
       </c>
-      <c r="E24" s="30">
+      <c r="F24" s="30">
         <v>65.8</v>
       </c>
-      <c r="F24" s="8">
-        <f>C24-B24</f>
+      <c r="G24" s="8">
+        <f>D24-C24</f>
         <v>11.103701729194086</v>
       </c>
-      <c r="G24" s="8">
+      <c r="H24" s="8">
         <f t="shared" si="0"/>
         <v>17.364734110034696</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6">
+        <v>6</v>
+      </c>
+      <c r="B25" s="82">
+        <v>10834.659078367114</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6">
         <v>422.48899984221043</v>
       </c>
-      <c r="D25" s="21">
+      <c r="E25" s="21">
         <v>65.5</v>
       </c>
-      <c r="E25" s="30">
+      <c r="F25" s="30">
         <v>56.838782549063097</v>
       </c>
-      <c r="G25" s="8">
+      <c r="H25" s="8">
         <f t="shared" si="0"/>
         <v>-8.6612174509369027</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6">
+        <v>5</v>
+      </c>
+      <c r="B26" s="82">
+        <v>6586.7212793222006</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6">
         <v>406.69958597410238</v>
       </c>
-      <c r="D26" s="21">
+      <c r="E26" s="21">
         <v>25.742123982649801</v>
       </c>
-      <c r="E26" s="30">
+      <c r="F26" s="30">
         <v>92.859992359524995</v>
       </c>
-      <c r="G26" s="8">
+      <c r="H26" s="8">
         <f t="shared" si="0"/>
         <v>67.117868376875194</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" s="82">
+        <v>49474.705606422031</v>
+      </c>
+      <c r="C27" s="5">
         <v>520</v>
       </c>
-      <c r="C27" s="6">
+      <c r="D27" s="6">
         <v>510.70893352049518</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="30">
+      <c r="E27" s="21"/>
+      <c r="F27" s="30">
         <v>94.6499780533304</v>
       </c>
-      <c r="F27" s="8">
-        <f t="shared" ref="F27:F32" si="2">C27-B27</f>
+      <c r="G27" s="8">
+        <f t="shared" ref="G27:G32" si="2">D27-C27</f>
         <v>-9.2910664795048206</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="5">
+        <v>21</v>
+      </c>
+      <c r="B28" s="82">
+        <v>101563.70267759719</v>
+      </c>
+      <c r="C28" s="5">
         <v>490</v>
       </c>
-      <c r="C28" s="6">
+      <c r="D28" s="6">
         <v>503.34252625510283</v>
       </c>
-      <c r="D28" s="21">
+      <c r="E28" s="21">
         <v>34.971152339729102</v>
       </c>
-      <c r="E28" s="30">
+      <c r="F28" s="30">
         <v>62.309997271469101</v>
       </c>
-      <c r="F28" s="8">
+      <c r="G28" s="8">
         <f t="shared" si="2"/>
         <v>13.342526255102825</v>
       </c>
-      <c r="G28" s="8">
-        <f>E28-D28</f>
+      <c r="H28" s="8">
+        <f>F28-E28</f>
         <v>27.338844931739999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="5">
+        <v>20</v>
+      </c>
+      <c r="B29" s="82">
+        <v>13142.045994608621</v>
+      </c>
+      <c r="C29" s="5">
         <v>487</v>
       </c>
-      <c r="C29" s="6">
+      <c r="D29" s="6">
         <v>480.76516211109595</v>
       </c>
-      <c r="D29" s="21">
+      <c r="E29" s="21">
         <v>64.349999999999994</v>
       </c>
-      <c r="E29" s="30">
+      <c r="F29" s="30">
         <v>60.3399974868057</v>
       </c>
-      <c r="F29" s="8">
+      <c r="G29" s="8">
         <f t="shared" si="2"/>
         <v>-6.2348378889040532</v>
       </c>
-      <c r="G29" s="8">
-        <f>E29-D29</f>
+      <c r="H29" s="8">
+        <f>F29-E29</f>
         <v>-4.0100025131942942</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" s="77" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="74">
+        <v>19</v>
+      </c>
+      <c r="B30" s="82">
+        <v>20577.402637589916</v>
+      </c>
+      <c r="C30" s="74">
         <v>470</v>
       </c>
-      <c r="C30" s="73">
+      <c r="D30" s="73">
         <v>494.42745682252212</v>
       </c>
-      <c r="D30" s="75">
+      <c r="E30" s="75">
         <v>78.13</v>
       </c>
-      <c r="E30" s="76">
+      <c r="F30" s="76">
         <v>63.8</v>
       </c>
-      <c r="F30" s="73">
+      <c r="G30" s="73">
         <f t="shared" si="2"/>
         <v>24.427456822522117</v>
       </c>
-      <c r="G30" s="73">
-        <f>E30-D30</f>
+      <c r="H30" s="73">
+        <f>F30-E30</f>
         <v>-14.329999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="5">
+        <v>4</v>
+      </c>
+      <c r="B31" s="82">
+        <v>15154.4722788295</v>
+      </c>
+      <c r="C31" s="5">
         <v>479</v>
       </c>
-      <c r="C31" s="6">
+      <c r="D31" s="6">
         <v>489.14242995179302</v>
       </c>
-      <c r="D31" s="21">
+      <c r="E31" s="21">
         <v>24.87</v>
       </c>
-      <c r="E31" s="30">
+      <c r="F31" s="30">
         <v>48.1</v>
       </c>
-      <c r="F31" s="8">
+      <c r="G31" s="8">
         <f t="shared" si="2"/>
         <v>10.142429951793019</v>
       </c>
-      <c r="G31" s="8">
-        <f>E31-D31</f>
+      <c r="H31" s="8">
+        <f>F31-E31</f>
         <v>23.23</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="5">
+        <v>3</v>
+      </c>
+      <c r="B32" s="82">
+        <v>5659.3802040369083</v>
+      </c>
+      <c r="C32" s="5">
         <v>420</v>
       </c>
-      <c r="C32" s="6">
+      <c r="D32" s="6">
         <v>473.43857430476237</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="30">
+      <c r="E32" s="21"/>
+      <c r="F32" s="30">
         <v>48.1</v>
       </c>
-      <c r="F32" s="8">
+      <c r="G32" s="8">
         <f t="shared" si="2"/>
         <v>53.438574304762369</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="B33" s="82">
+        <v>54451.210333388</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6">
         <v>562.42122402208986</v>
       </c>
-      <c r="D33" s="21">
+      <c r="E33" s="21">
         <v>29.67</v>
       </c>
-      <c r="E33" s="30">
+      <c r="F33" s="30">
         <v>72</v>
       </c>
-      <c r="G33" s="8">
-        <f>E33-D33</f>
+      <c r="H33" s="8">
+        <f>F33-E33</f>
         <v>42.33</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="5">
+        <v>18</v>
+      </c>
+      <c r="B34" s="82">
+        <v>17207.27849367286</v>
+      </c>
+      <c r="C34" s="5">
         <v>492</v>
       </c>
-      <c r="C34" s="6">
+      <c r="D34" s="6">
         <v>483.26737136906718</v>
       </c>
-      <c r="D34" s="21">
+      <c r="E34" s="21">
         <v>8.2988606155390805</v>
       </c>
-      <c r="E34" s="30">
+      <c r="F34" s="30">
         <v>76.709990118112103</v>
       </c>
-      <c r="F34" s="8">
-        <f>C34-B34</f>
+      <c r="G34" s="8">
+        <f>D34-C34</f>
         <v>-8.7326286309328225</v>
       </c>
-      <c r="G34" s="8">
-        <f>E34-D34</f>
+      <c r="H34" s="8">
+        <f>F34-E34</f>
         <v>68.411129502573019</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6">
+        <v>17</v>
+      </c>
+      <c r="B35" s="82">
+        <v>22477.603808590913</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6">
         <v>475.82926264962174</v>
       </c>
-      <c r="D35" s="21">
+      <c r="E35" s="21">
         <v>53.837943288191099</v>
       </c>
-      <c r="E35" s="30">
+      <c r="F35" s="30">
         <v>68.349974528782496</v>
       </c>
-      <c r="G35" s="8">
-        <f>E35-D35</f>
+      <c r="H35" s="8">
+        <f>F35-E35</f>
         <v>14.512031240591398</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="5">
+        <v>16</v>
+      </c>
+      <c r="B36" s="82">
+        <v>28647.835242689183</v>
+      </c>
+      <c r="C36" s="5">
         <v>482</v>
       </c>
-      <c r="C36" s="6">
+      <c r="D36" s="6">
         <v>476.77240705278768</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="30">
+      <c r="E36" s="21"/>
+      <c r="F36" s="30">
         <v>69.809999942002406</v>
       </c>
-      <c r="F36" s="8">
-        <f>C36-B36</f>
+      <c r="G36" s="8">
+        <f>D36-C36</f>
         <v>-5.2275929472123153</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" s="71" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="68">
+        <v>15</v>
+      </c>
+      <c r="B37" s="82">
+        <v>3988.6671671561207</v>
+      </c>
+      <c r="C37" s="68">
         <v>509</v>
       </c>
-      <c r="C37" s="67">
+      <c r="D37" s="67">
         <v>490.72183208761601</v>
       </c>
-      <c r="D37" s="72">
+      <c r="E37" s="72">
         <v>43.04</v>
       </c>
-      <c r="E37" s="70">
+      <c r="F37" s="70">
         <v>93.179988006510797</v>
       </c>
-      <c r="F37" s="67">
-        <f>C37-B37</f>
+      <c r="G37" s="67">
+        <f>D37-C37</f>
         <v>-18.278167912383992</v>
       </c>
-      <c r="G37" s="67">
-        <f>E37-D37</f>
+      <c r="H37" s="67">
+        <f>F37-E37</f>
         <v>50.139988006510798</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="5">
+        <v>14</v>
+      </c>
+      <c r="B38" s="82">
+        <v>10539.370337114608</v>
+      </c>
+      <c r="C38" s="5">
         <v>408</v>
       </c>
-      <c r="C38" s="6">
+      <c r="D38" s="6">
         <v>454.49123066647076</v>
       </c>
-      <c r="D38" s="21">
+      <c r="E38" s="21">
         <v>31.854793012044102</v>
       </c>
-      <c r="E38" s="30">
+      <c r="F38" s="30">
         <v>45.13</v>
       </c>
-      <c r="F38" s="8">
-        <f>C38-B38</f>
+      <c r="G38" s="8">
+        <f>D38-C38</f>
         <v>46.491230666470756</v>
       </c>
-      <c r="G38" s="8">
-        <f>E38-D38</f>
+      <c r="H38" s="8">
+        <f>F38-E38</f>
         <v>13.275206987955901</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="B39" s="82">
+        <v>41712.124210913506</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6">
         <v>411.15428458225972</v>
       </c>
-      <c r="D39" s="21">
+      <c r="E39" s="21">
         <v>79.13</v>
       </c>
-      <c r="E39" s="30">
+      <c r="F39" s="30">
         <v>84.999991504949193</v>
       </c>
-      <c r="G39" s="8">
-        <f>E39-D39</f>
+      <c r="H39" s="8">
+        <f>F39-E39</f>
         <v>5.8699915049491977</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6">
+        <v>66</v>
+      </c>
+      <c r="B40" s="82">
+        <v>41294.514800866637</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6">
         <v>516.83705120569266</v>
       </c>
-      <c r="D40" s="21">
+      <c r="E40" s="21">
         <v>12.33</v>
       </c>
-      <c r="E40" s="30">
+      <c r="F40" s="30">
         <v>87.479998424211104</v>
       </c>
-      <c r="G40" s="8">
-        <f>E40-D40</f>
+      <c r="H40" s="8">
+        <f>F40-E40</f>
         <v>75.149998424211105</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="6">
+        <v>13</v>
+      </c>
+      <c r="B41" s="82">
+        <v>51433.047090472719</v>
+      </c>
+      <c r="C41" s="80">
         <v>477</v>
       </c>
-      <c r="C41" s="6">
+      <c r="D41" s="6">
         <v>507.93198687404947</v>
       </c>
-      <c r="D41" s="21">
+      <c r="E41" s="21">
         <v>15.937136715975599</v>
       </c>
-      <c r="E41" s="30">
+      <c r="F41" s="30">
         <v>74.7</v>
       </c>
-      <c r="F41" s="8">
-        <f>C41-B41</f>
+      <c r="G41" s="8">
+        <f>D41-C41</f>
         <v>30.931986874049471</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="31">
+        <v>0</v>
+      </c>
+      <c r="B42" s="33">
+        <v>15092.472058667583</v>
+      </c>
+      <c r="C42" s="32">
         <v>411</v>
       </c>
-      <c r="C42" s="32">
+      <c r="D42" s="32">
         <v>403.41470069861339</v>
       </c>
-      <c r="D42" s="33">
+      <c r="E42" s="33">
         <v>61.6971171244207</v>
       </c>
-      <c r="E42" s="34">
+      <c r="F42" s="34">
         <v>54.453768680746002</v>
       </c>
-      <c r="F42" s="35">
-        <f>C42-B42</f>
+      <c r="G42" s="35">
+        <f>D42-C42</f>
         <v>-7.5852993013866126</v>
       </c>
-      <c r="G42" s="35"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H42" s="35"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="11"/>
-    </row>
-    <row r="47" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
-    </row>
-    <row r="48" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-    </row>
-    <row r="49" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-    </row>
-    <row r="50" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-    </row>
-    <row r="51" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-    </row>
-    <row r="52" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="15"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17"/>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
+  <autoFilter ref="A1:H1">
     <sortState ref="A2:G42">
       <sortCondition ref="A1:A42"/>
     </sortState>
   </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="A47" r:id="rId1" display="http://dx.doi.org/10.1787/9789264208070-en"/>
-  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="32" orientation="portrait"/>
 </worksheet>
@@ -11513,45 +11516,45 @@
   <sheetData>
     <row r="1" spans="1:12" s="19" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6">
         <v>523.08174521960564</v>
@@ -11585,7 +11588,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6">
         <v>506.36672702076271</v>
@@ -11623,7 +11626,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="6">
         <v>507.75617220335039</v>
@@ -11661,7 +11664,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6">
         <v>428.46640011817544</v>
@@ -11697,7 +11700,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6">
         <v>401.67329183481229</v>
@@ -11735,7 +11738,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="6">
         <v>525.71371892946456</v>
@@ -11771,7 +11774,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6">
         <v>447.86009451057282</v>
@@ -11807,7 +11810,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6">
         <v>399.16608752366403</v>
@@ -11845,7 +11848,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6">
         <v>466.25484873444759</v>
@@ -11883,7 +11886,7 @@
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6">
         <v>444.85827992953404</v>
@@ -11919,7 +11922,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="6">
         <v>508.97814094615705</v>
@@ -11957,7 +11960,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="6">
         <v>497.09709272264445</v>
@@ -11993,7 +11996,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6">
         <v>514.97890450273587</v>
@@ -12029,7 +12032,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6">
         <v>522.83321487532965</v>
@@ -12067,7 +12070,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6">
         <v>510.97601349961451</v>
@@ -12105,7 +12108,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="6">
         <v>508.66028113945396</v>
@@ -12143,7 +12146,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" s="6">
         <v>539.56074072710123</v>
@@ -12181,7 +12184,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="6">
         <v>459.03165632921332</v>
@@ -12217,7 +12220,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6">
         <v>498.33671240038007</v>
@@ -12255,7 +12258,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="6">
         <v>454.01659016569033</v>
@@ -12289,7 +12292,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="6">
         <v>509.60777467380962</v>
@@ -12323,7 +12326,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="6">
         <v>552.15350230951003</v>
@@ -12361,7 +12364,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6">
         <v>561.10370172919409</v>
@@ -12397,7 +12400,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="6">
         <v>422.48899984221043</v>
@@ -12431,7 +12434,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B26" s="6">
         <v>406.69958597410238</v>
@@ -12469,7 +12472,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="6">
         <v>510.70893352049518</v>
@@ -12503,7 +12506,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" s="6">
         <v>503.34252625510283</v>
@@ -12539,7 +12542,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" s="6">
         <v>480.76516211109595</v>
@@ -12577,7 +12580,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30" s="6">
         <v>494.42745682252212</v>
@@ -12615,7 +12618,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" s="6">
         <v>489.14242995179302</v>
@@ -12653,7 +12656,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" s="6">
         <v>473.43857430476237</v>
@@ -12685,7 +12688,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" s="6">
         <v>562.42122402208986</v>
@@ -12719,7 +12722,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B34" s="6">
         <v>483.26737136906718</v>
@@ -12757,7 +12760,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35" s="6">
         <v>475.82926264962174</v>
@@ -12795,7 +12798,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B36" s="6">
         <v>476.77240705278768</v>
@@ -12833,7 +12836,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="6">
         <v>490.72183208761601</v>
@@ -12871,7 +12874,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" s="6">
         <v>454.49123066647076</v>
@@ -12909,7 +12912,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B39" s="6">
         <v>411.15428458225972</v>
@@ -12947,7 +12950,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B40" s="6">
         <v>516.83705120569266</v>
@@ -12983,7 +12986,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B41" s="6">
         <v>507.93198687404947</v>
@@ -13019,7 +13022,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B42" s="6">
         <v>403.41470069861339</v>
@@ -13158,15 +13161,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="9.1640625" style="18"/>
     <col min="2" max="2" width="59.83203125" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="18"/>
+    <col min="3" max="16384" width="9.1640625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -13176,32 +13179,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C4"/>
     </row>
@@ -13212,99 +13215,99 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C12"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C15"/>
     </row>
@@ -13338,30 +13341,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5">
         <v>530</v>
@@ -13386,7 +13389,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="5">
         <v>506</v>
@@ -13405,7 +13408,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5">
         <v>525</v>
@@ -13430,7 +13433,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5">
         <v>371</v>
@@ -13455,7 +13458,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6">
@@ -13474,7 +13477,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5">
         <v>529</v>
@@ -13499,7 +13502,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6">
@@ -13518,7 +13521,7 @@
     </row>
     <row r="9" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6">
@@ -13538,7 +13541,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6">
@@ -13557,7 +13560,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6">
@@ -13576,7 +13579,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5">
         <v>516</v>
@@ -13601,7 +13604,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5">
         <v>517</v>
@@ -13626,7 +13629,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6">
@@ -13645,7 +13648,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5">
         <v>548</v>
@@ -13670,7 +13673,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5">
         <v>519</v>
@@ -13695,7 +13698,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="5">
         <v>513</v>
@@ -13720,7 +13723,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" s="5">
         <v>548</v>
@@ -13745,7 +13748,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="5">
         <v>501</v>
@@ -13770,7 +13773,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="5">
         <v>498</v>
@@ -13795,7 +13798,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6">
@@ -13814,7 +13817,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5">
         <v>469</v>
@@ -13839,7 +13842,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="5">
         <v>547</v>
@@ -13864,7 +13867,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5">
         <v>550</v>
@@ -13889,7 +13892,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6">
@@ -13908,7 +13911,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6">
@@ -13927,7 +13930,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="5">
         <v>520</v>
@@ -13946,7 +13949,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" s="5">
         <v>490</v>
@@ -13971,7 +13974,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" s="5">
         <v>487</v>
@@ -13996,7 +13999,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30" s="5">
         <v>470</v>
@@ -14021,7 +14024,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" s="5">
         <v>479</v>
@@ -14046,7 +14049,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" s="5">
         <v>420</v>
@@ -14065,7 +14068,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="6">
@@ -14084,7 +14087,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B34" s="5">
         <v>492</v>
@@ -14109,7 +14112,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="6">
@@ -14128,7 +14131,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B36" s="5">
         <v>482</v>
@@ -14147,7 +14150,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="5">
         <v>509</v>
@@ -14172,7 +14175,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" s="5">
         <v>408</v>
@@ -14197,7 +14200,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6">
@@ -14216,7 +14219,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6">
@@ -14235,7 +14238,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B41" s="6">
         <v>477</v>
@@ -14256,7 +14259,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B42" s="31">
         <v>411</v>
